--- a/template.xlsx
+++ b/template.xlsx
@@ -8,13 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\justin.pang\Downloads\reddit\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0599B753-4705-467C-8CF4-2C740E0E32A4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D82FE44D-EF7F-4953-8544-2A953B179B5E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{1F52284E-9C86-4058-BC06-351D7E19BA53}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{1F52284E-9C86-4058-BC06-351D7E19BA53}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="1" r:id="rId1"/>
-    <sheet name="Scoring" sheetId="2" r:id="rId2"/>
+    <sheet name="Stats" sheetId="3" r:id="rId2"/>
+    <sheet name="Scoring" sheetId="2" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -37,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="93">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="115" uniqueCount="102">
   <si>
     <t>Title</t>
   </si>
@@ -316,6 +317,33 @@
   </si>
   <si>
     <t>Neutral</t>
+  </si>
+  <si>
+    <t>General consenseus of comments</t>
+  </si>
+  <si>
+    <t>Content Type assesses the nature and severity of the content in the post, categorizing it based on the presence of violations, controversial topics, or harmful language.</t>
+  </si>
+  <si>
+    <t>Sentiment evaluates the overall emotional tone of the post, determining whether it conveys positive, negative, or neutral sentiments.</t>
+  </si>
+  <si>
+    <t>Keywords measures the prevalence of high-risk or flagged keywords within the post, indicating potential areas of concern.</t>
+  </si>
+  <si>
+    <t>Targeting assesses whether the post directs negative attention toward specific individuals or groups, evaluating the level of aggression or hostility.</t>
+  </si>
+  <si>
+    <t>Context evaluates the relevance of the post to current societal or political events, determining how closely it aligns with ongoing discussions or issues.</t>
+  </si>
+  <si>
+    <t>Urgency gauges the immediacy of a threat or the need for prompt action within the post, indicating the level of concern it may raise.</t>
+  </si>
+  <si>
+    <t>Source Reputation assesses the credibility of the post's author, determining whether the source is trustworthy or known for disseminating harmful content.</t>
+  </si>
+  <si>
+    <t>Assessment Criteria</t>
   </si>
 </sst>
 </file>
@@ -420,7 +448,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="16">
+  <borders count="17">
     <border>
       <left/>
       <right/>
@@ -599,11 +627,20 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color theme="5"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="40">
+  <cellXfs count="48">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -634,66 +671,6 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="9" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -701,16 +678,104 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="9">
+  <dxfs count="10">
     <dxf>
       <fill>
         <patternFill>
@@ -731,6 +796,21 @@
           <bgColor rgb="FF92D050"/>
         </patternFill>
       </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="16"/>
+        <color theme="1"/>
+        <name val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <font>
@@ -919,7 +999,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Main!$H$2</c:f>
+              <c:f>Stats!$C$18</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -944,7 +1024,7 @@
             </c:spPr>
             <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000001-532F-4934-BD38-534E94AF9E08}"/>
+                <c16:uniqueId val="{00000001-6CD4-47BD-92F3-2C1F249DE5F7}"/>
               </c:ext>
             </c:extLst>
           </c:dPt>
@@ -964,7 +1044,7 @@
             </c:spPr>
             <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000003-532F-4934-BD38-534E94AF9E08}"/>
+                <c16:uniqueId val="{00000003-6CD4-47BD-92F3-2C1F249DE5F7}"/>
               </c:ext>
             </c:extLst>
           </c:dPt>
@@ -984,13 +1064,13 @@
             </c:spPr>
             <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000005-532F-4934-BD38-534E94AF9E08}"/>
+                <c16:uniqueId val="{00000005-6CD4-47BD-92F3-2C1F249DE5F7}"/>
               </c:ext>
             </c:extLst>
           </c:dPt>
           <c:cat>
             <c:strRef>
-              <c:f>Main!$G$3:$G$5</c:f>
+              <c:f>Stats!$B$19:$B$21</c:f>
               <c:strCache>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
@@ -1007,7 +1087,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Main!$H$3:$H$5</c:f>
+              <c:f>Stats!$C$19:$C$21</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
@@ -1025,7 +1105,7 @@
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000006-532F-4934-BD38-534E94AF9E08}"/>
+              <c16:uniqueId val="{00000006-6CD4-47BD-92F3-2C1F249DE5F7}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1679,23 +1759,23 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>142875</xdr:colOff>
-      <xdr:row>6</xdr:row>
-      <xdr:rowOff>555625</xdr:rowOff>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>781050</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>142875</xdr:colOff>
-      <xdr:row>9</xdr:row>
-      <xdr:rowOff>1044575</xdr:rowOff>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
         <xdr:cNvPr id="2" name="Chart 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8D14D040-CF5D-4701-9EAC-C206F15EEE18}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{294A6397-A063-4B0E-92C5-D99BD0CC53E3}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1719,13 +1799,14 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{74107AB8-B53C-490F-802C-1E65C6B87CDD}" name="Table2" displayName="Table2" ref="A8:D15" totalsRowShown="0" headerRowDxfId="8" dataDxfId="7">
-  <autoFilter ref="A8:D15" xr:uid="{74107AB8-B53C-490F-802C-1E65C6B87CDD}"/>
-  <tableColumns count="4">
-    <tableColumn id="1" xr3:uid="{7779541D-F89B-4AE9-AFD8-A5022352B95C}" name="Metric" dataDxfId="6"/>
-    <tableColumn id="2" xr3:uid="{F128112D-596F-422A-AAEA-2822EBF3BB39}" name="Score" dataDxfId="5"/>
-    <tableColumn id="4" xr3:uid="{D5173141-0E21-469A-AED9-FD96C6BE06B6}" name="Max Score" dataDxfId="4"/>
-    <tableColumn id="3" xr3:uid="{1296B88F-742D-4C0F-BC2A-61203ED26F75}" name="Explanation" dataDxfId="3"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{74107AB8-B53C-490F-802C-1E65C6B87CDD}" name="Table2" displayName="Table2" ref="A8:E15" totalsRowShown="0" headerRowDxfId="9" dataDxfId="8">
+  <autoFilter ref="A8:E15" xr:uid="{74107AB8-B53C-490F-802C-1E65C6B87CDD}"/>
+  <tableColumns count="5">
+    <tableColumn id="1" xr3:uid="{7779541D-F89B-4AE9-AFD8-A5022352B95C}" name="Metric" dataDxfId="7"/>
+    <tableColumn id="2" xr3:uid="{F128112D-596F-422A-AAEA-2822EBF3BB39}" name="Score" dataDxfId="6"/>
+    <tableColumn id="4" xr3:uid="{D5173141-0E21-469A-AED9-FD96C6BE06B6}" name="Max Score" dataDxfId="5"/>
+    <tableColumn id="3" xr3:uid="{1296B88F-742D-4C0F-BC2A-61203ED26F75}" name="Explanation" dataDxfId="4"/>
+    <tableColumn id="5" xr3:uid="{93F523B8-27D6-4A97-BCEB-A1DC3D95EB83}" name="Assessment Criteria" dataDxfId="3"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight10" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -2048,10 +2129,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DF4DA560-5120-416E-9A07-B134BFD266B2}">
-  <dimension ref="A2:M18"/>
+  <dimension ref="A2:K18"/>
   <sheetViews>
-    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="H5" sqref="H5"/>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="A7" sqref="A7:D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="7.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2060,90 +2141,62 @@
     <col min="2" max="2" width="14.7265625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="22.36328125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="200.6328125" customWidth="1"/>
-    <col min="7" max="7" width="28.81640625" customWidth="1"/>
-    <col min="8" max="8" width="20.81640625" customWidth="1"/>
+    <col min="5" max="5" width="95.81640625" customWidth="1"/>
+    <col min="6" max="6" width="28.81640625" customWidth="1"/>
+    <col min="7" max="7" width="20.81640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:13" ht="21" x14ac:dyDescent="0.5">
+    <row r="2" spans="1:11" ht="21" x14ac:dyDescent="0.5">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="18"/>
-      <c r="C2" s="19"/>
-      <c r="D2" s="20"/>
-      <c r="G2" s="34" t="s">
-        <v>88</v>
-      </c>
-      <c r="H2" s="34" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="3" spans="1:13" ht="21" x14ac:dyDescent="0.5">
+      <c r="B2" s="22"/>
+      <c r="C2" s="23"/>
+      <c r="D2" s="24"/>
+    </row>
+    <row r="3" spans="1:11" ht="21" x14ac:dyDescent="0.5">
       <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="18"/>
-      <c r="C3" s="19"/>
-      <c r="D3" s="20"/>
-      <c r="G3" s="35" t="s">
-        <v>90</v>
-      </c>
-      <c r="H3" s="36">
-        <v>10000</v>
-      </c>
-    </row>
-    <row r="4" spans="1:13" ht="60" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="A4" s="30" t="s">
+      <c r="B3" s="22"/>
+      <c r="C3" s="23"/>
+      <c r="D3" s="24"/>
+    </row>
+    <row r="4" spans="1:11" ht="60" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A4" s="34" t="s">
         <v>11</v>
       </c>
-      <c r="B4" s="21"/>
-      <c r="C4" s="22"/>
-      <c r="D4" s="23"/>
-      <c r="G4" s="35" t="s">
-        <v>91</v>
-      </c>
-      <c r="H4" s="36">
-        <v>500</v>
-      </c>
-      <c r="L4" s="37"/>
-    </row>
-    <row r="5" spans="1:13" ht="60" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="A5" s="31"/>
-      <c r="B5" s="24"/>
-      <c r="C5" s="25"/>
-      <c r="D5" s="26"/>
-      <c r="G5" s="36" t="s">
-        <v>92</v>
-      </c>
-      <c r="H5" s="36">
-        <v>400</v>
-      </c>
-      <c r="L5" s="38"/>
-      <c r="M5" s="37"/>
-    </row>
-    <row r="6" spans="1:13" ht="0.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A6" s="32"/>
-      <c r="B6" s="27"/>
-      <c r="C6" s="28"/>
-      <c r="D6" s="29"/>
-      <c r="L6" s="37"/>
-      <c r="M6" s="37"/>
-    </row>
-    <row r="7" spans="1:13" ht="58" customHeight="1" x14ac:dyDescent="1.1000000000000001">
-      <c r="A7" s="17" t="s">
+      <c r="B4" s="25"/>
+      <c r="C4" s="26"/>
+      <c r="D4" s="27"/>
+    </row>
+    <row r="5" spans="1:11" ht="60" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="A5" s="35"/>
+      <c r="B5" s="28"/>
+      <c r="C5" s="29"/>
+      <c r="D5" s="30"/>
+      <c r="K5" s="2"/>
+    </row>
+    <row r="6" spans="1:11" ht="0.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A6" s="36"/>
+      <c r="B6" s="31"/>
+      <c r="C6" s="32"/>
+      <c r="D6" s="33"/>
+    </row>
+    <row r="7" spans="1:11" ht="58" customHeight="1" x14ac:dyDescent="1.1000000000000001">
+      <c r="A7" s="21" t="s">
         <v>2</v>
       </c>
-      <c r="B7" s="17"/>
-      <c r="C7" s="17"/>
-      <c r="D7" s="17"/>
-      <c r="G7" s="39"/>
-      <c r="H7" s="37"/>
-    </row>
-    <row r="8" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.65">
-      <c r="A8" s="33" t="s">
+      <c r="B7" s="21"/>
+      <c r="C7" s="21"/>
+      <c r="D7" s="21"/>
+      <c r="F7" s="3"/>
+    </row>
+    <row r="8" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.65">
+      <c r="A8" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="B8" s="33" t="s">
+      <c r="B8" s="5" t="s">
         <v>4</v>
       </c>
       <c r="C8" s="5" t="s">
@@ -2152,18 +2205,24 @@
       <c r="D8" s="5" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="9" spans="1:13" ht="90" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="A9" s="33" t="s">
+      <c r="E8" s="5" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" ht="90" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="A9" s="13" t="s">
         <v>3</v>
       </c>
-      <c r="B9" s="33"/>
+      <c r="B9" s="13"/>
       <c r="C9" s="2">
         <v>10</v>
       </c>
       <c r="D9" s="3"/>
-    </row>
-    <row r="10" spans="1:13" ht="90" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="E9" s="3" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" ht="90" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A10" s="2" t="s">
         <v>6</v>
       </c>
@@ -2172,8 +2231,11 @@
         <v>10</v>
       </c>
       <c r="D10" s="3"/>
-    </row>
-    <row r="11" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="E10" s="3" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" ht="75.5" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A11" s="2" t="s">
         <v>7</v>
       </c>
@@ -2182,8 +2244,11 @@
         <v>10</v>
       </c>
       <c r="D11" s="3"/>
-    </row>
-    <row r="12" spans="1:13" ht="90" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="E11" s="3" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" ht="90" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A12" s="2" t="s">
         <v>8</v>
       </c>
@@ -2192,8 +2257,11 @@
         <v>10</v>
       </c>
       <c r="D12" s="3"/>
-    </row>
-    <row r="13" spans="1:13" ht="90" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="E12" s="3" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" ht="90" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A13" s="2" t="s">
         <v>9</v>
       </c>
@@ -2202,8 +2270,11 @@
         <v>10</v>
       </c>
       <c r="D13" s="3"/>
-    </row>
-    <row r="14" spans="1:13" ht="90" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="E13" s="3" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" ht="90" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A14" s="2" t="s">
         <v>12</v>
       </c>
@@ -2212,8 +2283,11 @@
         <v>10</v>
       </c>
       <c r="D14" s="3"/>
-    </row>
-    <row r="15" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="E14" s="3" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" ht="75.5" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A15" s="2" t="s">
         <v>10</v>
       </c>
@@ -2222,26 +2296,29 @@
         <v>10</v>
       </c>
       <c r="D15" s="3"/>
-    </row>
-    <row r="16" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.35"/>
+      <c r="E15" s="3" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.35"/>
     <row r="17" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.7">
       <c r="A17" s="4" t="s">
         <v>87</v>
       </c>
-      <c r="B17" s="13">
+      <c r="B17" s="17">
         <f>SUM(Table2[Score])/70*100</f>
         <v>0</v>
       </c>
-      <c r="C17" s="13"/>
-      <c r="D17" s="13"/>
+      <c r="C17" s="17"/>
+      <c r="D17" s="17"/>
     </row>
     <row r="18" spans="1:4" ht="151.5" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A18" s="12" t="s">
         <v>86</v>
       </c>
-      <c r="B18" s="14"/>
-      <c r="C18" s="15"/>
-      <c r="D18" s="16"/>
+      <c r="B18" s="18"/>
+      <c r="C18" s="19"/>
+      <c r="D18" s="20"/>
     </row>
   </sheetData>
   <mergeCells count="7">
@@ -2266,18 +2343,108 @@
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
   <tableParts count="1">
-    <tablePart r:id="rId2"/>
+    <tablePart r:id="rId1"/>
   </tableParts>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{46FD9E3F-E70D-45A8-8F2C-D4A43930FBCC}">
+  <dimension ref="B18:L21"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="N20" sqref="N20"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="11.26953125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.6328125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.453125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="18" spans="2:12" ht="21" x14ac:dyDescent="0.5">
+      <c r="B18" s="14" t="s">
+        <v>88</v>
+      </c>
+      <c r="C18" s="14" t="s">
+        <v>89</v>
+      </c>
+      <c r="E18" s="37" t="s">
+        <v>93</v>
+      </c>
+      <c r="F18" s="38"/>
+      <c r="G18" s="38"/>
+      <c r="H18" s="38"/>
+      <c r="I18" s="38"/>
+      <c r="J18" s="38"/>
+      <c r="K18" s="38"/>
+      <c r="L18" s="38"/>
+    </row>
+    <row r="19" spans="2:12" ht="21" x14ac:dyDescent="0.5">
+      <c r="B19" s="15" t="s">
+        <v>90</v>
+      </c>
+      <c r="C19" s="16">
+        <v>10000</v>
+      </c>
+      <c r="E19" s="39"/>
+      <c r="F19" s="40"/>
+      <c r="G19" s="40"/>
+      <c r="H19" s="40"/>
+      <c r="I19" s="40"/>
+      <c r="J19" s="40"/>
+      <c r="K19" s="40"/>
+      <c r="L19" s="41"/>
+    </row>
+    <row r="20" spans="2:12" ht="21" x14ac:dyDescent="0.5">
+      <c r="B20" s="15" t="s">
+        <v>91</v>
+      </c>
+      <c r="C20" s="16">
+        <v>500</v>
+      </c>
+      <c r="E20" s="42"/>
+      <c r="F20" s="43"/>
+      <c r="G20" s="43"/>
+      <c r="H20" s="43"/>
+      <c r="I20" s="43"/>
+      <c r="J20" s="43"/>
+      <c r="K20" s="43"/>
+      <c r="L20" s="44"/>
+    </row>
+    <row r="21" spans="2:12" ht="21" x14ac:dyDescent="0.5">
+      <c r="B21" s="16" t="s">
+        <v>92</v>
+      </c>
+      <c r="C21" s="16">
+        <v>400</v>
+      </c>
+      <c r="E21" s="45"/>
+      <c r="F21" s="46"/>
+      <c r="G21" s="46"/>
+      <c r="H21" s="46"/>
+      <c r="I21" s="46"/>
+      <c r="J21" s="46"/>
+      <c r="K21" s="46"/>
+      <c r="L21" s="47"/>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="E18:L18"/>
+    <mergeCell ref="E19:L21"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{82F2D57F-93BD-4E0B-95BE-BCD1AB63C0BA}">
   <dimension ref="A1:K23"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <selection activeCell="D27" sqref="D27"/>
     </sheetView>
   </sheetViews>

--- a/template.xlsx
+++ b/template.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\justin.pang\Downloads\reddit\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D82FE44D-EF7F-4953-8544-2A953B179B5E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AF947B32-44CF-4049-8D85-4DDE64C3EB8D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{1F52284E-9C86-4058-BC06-351D7E19BA53}"/>
   </bookViews>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="115" uniqueCount="102">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="99">
   <si>
     <t>Title</t>
   </si>
@@ -61,9 +61,6 @@
     <t>Sentiment</t>
   </si>
   <si>
-    <t>Keyword</t>
-  </si>
-  <si>
     <t>Targetting</t>
   </si>
   <si>
@@ -328,9 +325,6 @@
     <t>Sentiment evaluates the overall emotional tone of the post, determining whether it conveys positive, negative, or neutral sentiments.</t>
   </si>
   <si>
-    <t>Keywords measures the prevalence of high-risk or flagged keywords within the post, indicating potential areas of concern.</t>
-  </si>
-  <si>
     <t>Targeting assesses whether the post directs negative attention toward specific individuals or groups, evaluating the level of aggression or hostility.</t>
   </si>
   <si>
@@ -338,9 +332,6 @@
   </si>
   <si>
     <t>Urgency gauges the immediacy of a threat or the need for prompt action within the post, indicating the level of concern it may raise.</t>
-  </si>
-  <si>
-    <t>Source Reputation assesses the credibility of the post's author, determining whether the source is trustworthy or known for disseminating harmful content.</t>
   </si>
   <si>
     <t>Assessment Criteria</t>
@@ -1799,8 +1790,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{74107AB8-B53C-490F-802C-1E65C6B87CDD}" name="Table2" displayName="Table2" ref="A8:E15" totalsRowShown="0" headerRowDxfId="9" dataDxfId="8">
-  <autoFilter ref="A8:E15" xr:uid="{74107AB8-B53C-490F-802C-1E65C6B87CDD}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{74107AB8-B53C-490F-802C-1E65C6B87CDD}" name="Table2" displayName="Table2" ref="A8:E13" totalsRowShown="0" headerRowDxfId="9" dataDxfId="8">
+  <autoFilter ref="A8:E13" xr:uid="{74107AB8-B53C-490F-802C-1E65C6B87CDD}"/>
   <tableColumns count="5">
     <tableColumn id="1" xr3:uid="{7779541D-F89B-4AE9-AFD8-A5022352B95C}" name="Metric" dataDxfId="7"/>
     <tableColumn id="2" xr3:uid="{F128112D-596F-422A-AAEA-2822EBF3BB39}" name="Score" dataDxfId="6"/>
@@ -2129,10 +2120,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DF4DA560-5120-416E-9A07-B134BFD266B2}">
-  <dimension ref="A2:K18"/>
+  <dimension ref="A2:K16"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="A7" sqref="A7:D7"/>
+    <sheetView tabSelected="1" topLeftCell="A12" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="B16" sqref="B16:D16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="7.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2164,7 +2155,7 @@
     </row>
     <row r="4" spans="1:11" ht="60" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A4" s="34" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B4" s="25"/>
       <c r="C4" s="26"/>
@@ -2194,19 +2185,19 @@
     </row>
     <row r="8" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.65">
       <c r="A8" s="5" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B8" s="5" t="s">
         <v>4</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D8" s="5" t="s">
         <v>5</v>
       </c>
       <c r="E8" s="5" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
     </row>
     <row r="9" spans="1:11" ht="90" customHeight="1" x14ac:dyDescent="0.5">
@@ -2219,7 +2210,7 @@
       </c>
       <c r="D9" s="3"/>
       <c r="E9" s="3" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="10" spans="1:11" ht="90" customHeight="1" x14ac:dyDescent="0.5">
@@ -2232,10 +2223,10 @@
       </c>
       <c r="D10" s="3"/>
       <c r="E10" s="3" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="11" spans="1:11" ht="75.5" customHeight="1" x14ac:dyDescent="0.5">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" ht="90" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A11" s="2" t="s">
         <v>7</v>
       </c>
@@ -2245,7 +2236,7 @@
       </c>
       <c r="D11" s="3"/>
       <c r="E11" s="3" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="12" spans="1:11" ht="90" customHeight="1" x14ac:dyDescent="0.5">
@@ -2258,12 +2249,12 @@
       </c>
       <c r="D12" s="3"/>
       <c r="E12" s="3" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="13" spans="1:11" ht="90" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A13" s="2" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="B13" s="2"/>
       <c r="C13" s="2">
@@ -2271,59 +2262,33 @@
       </c>
       <c r="D13" s="3"/>
       <c r="E13" s="3" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="14" spans="1:11" ht="90" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="A14" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="B14" s="2"/>
-      <c r="C14" s="2">
-        <v>10</v>
-      </c>
-      <c r="D14" s="3"/>
-      <c r="E14" s="3" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="15" spans="1:11" ht="75.5" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="A15" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="B15" s="2"/>
-      <c r="C15" s="2">
-        <v>10</v>
-      </c>
-      <c r="D15" s="3"/>
-      <c r="E15" s="3" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="16" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="17" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.7">
-      <c r="A17" s="4" t="s">
-        <v>87</v>
-      </c>
-      <c r="B17" s="17">
-        <f>SUM(Table2[Score])/70*100</f>
+        <v>97</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="15" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.7">
+      <c r="A15" s="4" t="s">
+        <v>86</v>
+      </c>
+      <c r="B15" s="17">
+        <f>SUM(Table2[Score])/SUM(Table2[Max Score])*100</f>
         <v>0</v>
       </c>
-      <c r="C17" s="17"/>
-      <c r="D17" s="17"/>
-    </row>
-    <row r="18" spans="1:4" ht="151.5" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="A18" s="12" t="s">
-        <v>86</v>
-      </c>
-      <c r="B18" s="18"/>
-      <c r="C18" s="19"/>
-      <c r="D18" s="20"/>
+      <c r="C15" s="17"/>
+      <c r="D15" s="17"/>
+    </row>
+    <row r="16" spans="1:11" ht="151.5" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="A16" s="12" t="s">
+        <v>85</v>
+      </c>
+      <c r="B16" s="18"/>
+      <c r="C16" s="19"/>
+      <c r="D16" s="20"/>
     </row>
   </sheetData>
   <mergeCells count="7">
-    <mergeCell ref="B17:D17"/>
-    <mergeCell ref="B18:D18"/>
+    <mergeCell ref="B15:D15"/>
+    <mergeCell ref="B16:D16"/>
     <mergeCell ref="A7:D7"/>
     <mergeCell ref="B2:D2"/>
     <mergeCell ref="B3:D3"/>
@@ -2331,15 +2296,15 @@
     <mergeCell ref="A4:A6"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
-  <conditionalFormatting sqref="B17">
+  <conditionalFormatting sqref="B15">
     <cfRule type="expression" dxfId="2" priority="1">
-      <formula>B17&lt;=33</formula>
+      <formula>B15&lt;=33</formula>
     </cfRule>
     <cfRule type="expression" dxfId="1" priority="2">
-      <formula>AND(B17&gt;33, B17&lt;=66)</formula>
+      <formula>AND(B15&gt;33, B15&lt;=66)</formula>
     </cfRule>
     <cfRule type="expression" dxfId="0" priority="3">
-      <formula>B17&gt;66</formula>
+      <formula>B15&gt;66</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2366,13 +2331,13 @@
   <sheetData>
     <row r="18" spans="2:12" ht="21" x14ac:dyDescent="0.5">
       <c r="B18" s="14" t="s">
+        <v>87</v>
+      </c>
+      <c r="C18" s="14" t="s">
         <v>88</v>
       </c>
-      <c r="C18" s="14" t="s">
-        <v>89</v>
-      </c>
       <c r="E18" s="37" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="F18" s="38"/>
       <c r="G18" s="38"/>
@@ -2384,7 +2349,7 @@
     </row>
     <row r="19" spans="2:12" ht="21" x14ac:dyDescent="0.5">
       <c r="B19" s="15" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C19" s="16">
         <v>10000</v>
@@ -2400,7 +2365,7 @@
     </row>
     <row r="20" spans="2:12" ht="21" x14ac:dyDescent="0.5">
       <c r="B20" s="15" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C20" s="16">
         <v>500</v>
@@ -2416,7 +2381,7 @@
     </row>
     <row r="21" spans="2:12" ht="21" x14ac:dyDescent="0.5">
       <c r="B21" s="16" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C21" s="16">
         <v>400</v>
@@ -2471,25 +2436,25 @@
         <v>3</v>
       </c>
       <c r="B1" s="11" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D1" s="10" t="s">
         <v>6</v>
       </c>
       <c r="E1" s="11" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G1" s="10" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="H1" s="11" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="J1" s="10" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="K1" s="11" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.35">
@@ -2497,25 +2462,25 @@
         <v>1</v>
       </c>
       <c r="B2" s="9" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D2" s="8">
         <v>1</v>
       </c>
       <c r="E2" s="9" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="G2" s="8">
         <v>1</v>
       </c>
       <c r="H2" s="9" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="J2" s="8">
         <v>1</v>
       </c>
       <c r="K2" s="9" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.35">
@@ -2523,25 +2488,25 @@
         <v>2</v>
       </c>
       <c r="B3" s="7" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D3" s="6">
         <v>2</v>
       </c>
       <c r="E3" s="7" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="G3" s="6">
         <v>2</v>
       </c>
       <c r="H3" s="7" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="J3" s="6">
         <v>2</v>
       </c>
       <c r="K3" s="7" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.35">
@@ -2549,25 +2514,25 @@
         <v>3</v>
       </c>
       <c r="B4" s="7" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D4" s="6">
         <v>3</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="G4" s="6">
         <v>3</v>
       </c>
       <c r="H4" s="7" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="J4" s="6">
         <v>3</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.35">
@@ -2575,25 +2540,25 @@
         <v>4</v>
       </c>
       <c r="B5" s="7" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D5" s="6">
         <v>4</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G5" s="6">
         <v>4</v>
       </c>
       <c r="H5" s="7" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="J5" s="6">
         <v>4</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.35">
@@ -2601,25 +2566,25 @@
         <v>5</v>
       </c>
       <c r="B6" s="7" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D6" s="6">
         <v>5</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G6" s="6">
         <v>5</v>
       </c>
       <c r="H6" s="7" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="J6" s="6">
         <v>5</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.35">
@@ -2627,25 +2592,25 @@
         <v>6</v>
       </c>
       <c r="B7" s="7" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D7" s="6">
         <v>6</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="G7" s="6">
         <v>6</v>
       </c>
       <c r="H7" s="7" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="J7" s="6">
         <v>6</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.35">
@@ -2653,25 +2618,25 @@
         <v>7</v>
       </c>
       <c r="B8" s="7" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D8" s="6">
         <v>7</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="G8" s="6">
         <v>7</v>
       </c>
       <c r="H8" s="7" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="J8" s="6">
         <v>7</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.35">
@@ -2679,25 +2644,25 @@
         <v>8</v>
       </c>
       <c r="B9" s="7" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D9" s="6">
         <v>8</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="G9" s="6">
         <v>8</v>
       </c>
       <c r="H9" s="7" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="J9" s="6">
         <v>8</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.35">
@@ -2705,25 +2670,25 @@
         <v>9</v>
       </c>
       <c r="B10" s="7" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D10" s="6">
         <v>9</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="G10" s="6">
         <v>9</v>
       </c>
       <c r="H10" s="7" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="J10" s="6">
         <v>9</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.35">
@@ -2731,45 +2696,45 @@
         <v>10</v>
       </c>
       <c r="B11" s="7" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D11" s="6">
         <v>10</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="G11" s="6">
         <v>10</v>
       </c>
       <c r="H11" s="7" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="J11" s="6">
         <v>10</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="13" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A13" s="10" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B13" s="11" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D13" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="E13" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="E13" s="11" t="s">
-        <v>13</v>
-      </c>
       <c r="G13" s="10" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="H13" s="11" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.35">
@@ -2777,19 +2742,19 @@
         <v>1</v>
       </c>
       <c r="B14" s="9" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D14" s="8">
         <v>1</v>
       </c>
       <c r="E14" s="9" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="G14" s="8">
         <v>1</v>
       </c>
       <c r="H14" s="9" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.35">
@@ -2797,19 +2762,19 @@
         <v>2</v>
       </c>
       <c r="B15" s="7" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D15" s="6">
         <v>2</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="G15" s="6">
         <v>2</v>
       </c>
       <c r="H15" s="7" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.35">
@@ -2817,19 +2782,19 @@
         <v>3</v>
       </c>
       <c r="B16" s="7" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D16" s="6">
         <v>3</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G16" s="6">
         <v>3</v>
       </c>
       <c r="H16" s="7" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.35">
@@ -2837,19 +2802,19 @@
         <v>4</v>
       </c>
       <c r="B17" s="7" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D17" s="6">
         <v>4</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G17" s="6">
         <v>4</v>
       </c>
       <c r="H17" s="7" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.35">
@@ -2857,19 +2822,19 @@
         <v>5</v>
       </c>
       <c r="B18" s="7" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D18" s="6">
         <v>5</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="G18" s="6">
         <v>5</v>
       </c>
       <c r="H18" s="7" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.35">
@@ -2877,19 +2842,19 @@
         <v>6</v>
       </c>
       <c r="B19" s="7" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="D19" s="6">
         <v>6</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="G19" s="6">
         <v>6</v>
       </c>
       <c r="H19" s="7" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.35">
@@ -2897,19 +2862,19 @@
         <v>7</v>
       </c>
       <c r="B20" s="7" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D20" s="6">
         <v>7</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="G20" s="6">
         <v>7</v>
       </c>
       <c r="H20" s="7" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.35">
@@ -2917,19 +2882,19 @@
         <v>8</v>
       </c>
       <c r="B21" s="7" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="D21" s="6">
         <v>8</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="G21" s="6">
         <v>8</v>
       </c>
       <c r="H21" s="7" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.35">
@@ -2937,19 +2902,19 @@
         <v>9</v>
       </c>
       <c r="B22" s="7" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="D22" s="6">
         <v>9</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="G22" s="6">
         <v>9</v>
       </c>
       <c r="H22" s="7" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.35">
@@ -2957,19 +2922,19 @@
         <v>10</v>
       </c>
       <c r="B23" s="7" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D23" s="6">
         <v>10</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="G23" s="6">
         <v>10</v>
       </c>
       <c r="H23" s="7" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
   </sheetData>

--- a/template.xlsx
+++ b/template.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\justin.pang\Downloads\reddit\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AF947B32-44CF-4049-8D85-4DDE64C3EB8D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F7618D53-777E-4006-9D07-1F2C5A82A5F0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{1F52284E-9C86-4058-BC06-351D7E19BA53}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="1" xr2:uid="{1F52284E-9C86-4058-BC06-351D7E19BA53}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="1" r:id="rId1"/>
@@ -999,12 +999,17 @@
               </c:strCache>
             </c:strRef>
           </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="92D050"/>
+            </a:solidFill>
+          </c:spPr>
           <c:dPt>
             <c:idx val="0"/>
             <c:bubble3D val="0"/>
             <c:spPr>
               <a:solidFill>
-                <a:schemeClr val="accent1"/>
+                <a:srgbClr val="92D050"/>
               </a:solidFill>
               <a:ln w="19050">
                 <a:solidFill>
@@ -1024,7 +1029,7 @@
             <c:bubble3D val="0"/>
             <c:spPr>
               <a:solidFill>
-                <a:schemeClr val="accent2"/>
+                <a:srgbClr val="FF0000"/>
               </a:solidFill>
               <a:ln w="19050">
                 <a:solidFill>
@@ -1044,7 +1049,7 @@
             <c:bubble3D val="0"/>
             <c:spPr>
               <a:solidFill>
-                <a:schemeClr val="accent3"/>
+                <a:srgbClr val="FFC000"/>
               </a:solidFill>
               <a:ln w="19050">
                 <a:solidFill>
@@ -2122,7 +2127,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DF4DA560-5120-416E-9A07-B134BFD266B2}">
   <dimension ref="A2:K16"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A12" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+    <sheetView topLeftCell="A6" zoomScale="40" zoomScaleNormal="40" workbookViewId="0">
       <selection activeCell="B16" sqref="B16:D16"/>
     </sheetView>
   </sheetViews>
@@ -2318,8 +2323,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{46FD9E3F-E70D-45A8-8F2C-D4A43930FBCC}">
   <dimension ref="B18:L21"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="N20" sqref="N20"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="Q18" sqref="Q18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>

--- a/template.xlsx
+++ b/template.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\justin.pang\Downloads\reddit\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F7618D53-777E-4006-9D07-1F2C5A82A5F0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F87790C0-9665-4296-BC48-BDD65F231364}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="1" xr2:uid="{1F52284E-9C86-4058-BC06-351D7E19BA53}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{1F52284E-9C86-4058-BC06-351D7E19BA53}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="1" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="99">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="77">
   <si>
     <t>Title</t>
   </si>
@@ -67,9 +67,6 @@
     <t>Context</t>
   </si>
   <si>
-    <t>Source Reputation</t>
-  </si>
-  <si>
     <t>Body</t>
   </si>
   <si>
@@ -91,9 +88,6 @@
     <t xml:space="preserve"> Positive with minor criticism.</t>
   </si>
   <si>
-    <t xml:space="preserve"> Minimal use of sensitive keywords.</t>
-  </si>
-  <si>
     <t xml:space="preserve"> Very subtle targeting.</t>
   </si>
   <si>
@@ -106,9 +100,6 @@
     <t xml:space="preserve"> Very positive.</t>
   </si>
   <si>
-    <t xml:space="preserve"> No risky keywords.</t>
-  </si>
-  <si>
     <t xml:space="preserve"> No targeting.</t>
   </si>
   <si>
@@ -124,9 +115,6 @@
     <t xml:space="preserve"> Mostly positive with some negativity.</t>
   </si>
   <si>
-    <t xml:space="preserve"> Occasional low-risk keywords.</t>
-  </si>
-  <si>
     <t xml:space="preserve"> Occasional indirect targeting.</t>
   </si>
   <si>
@@ -142,9 +130,6 @@
     <t xml:space="preserve"> Neutral with slight positive undertones.</t>
   </si>
   <si>
-    <t xml:space="preserve"> Frequent low-risk keywords.</t>
-  </si>
-  <si>
     <t xml:space="preserve"> Frequent indirect references.</t>
   </si>
   <si>
@@ -160,9 +145,6 @@
     <t xml:space="preserve"> Neutral.</t>
   </si>
   <si>
-    <t xml:space="preserve"> Some high-risk keywords.</t>
-  </si>
-  <si>
     <t xml:space="preserve"> Subtle targeting.</t>
   </si>
   <si>
@@ -178,9 +160,6 @@
     <t xml:space="preserve"> Slightly negative.</t>
   </si>
   <si>
-    <t xml:space="preserve"> Moderate use of high-risk keywords.</t>
-  </si>
-  <si>
     <t xml:space="preserve"> Direct but mild targeting.</t>
   </si>
   <si>
@@ -196,9 +175,6 @@
     <t xml:space="preserve"> Mostly negative with some positive aspects.</t>
   </si>
   <si>
-    <t xml:space="preserve"> Frequent use of high-risk keywords.</t>
-  </si>
-  <si>
     <t xml:space="preserve"> Direct targeting without aggressive language.</t>
   </si>
   <si>
@@ -214,9 +190,6 @@
     <t xml:space="preserve"> Predominantly negative.</t>
   </si>
   <si>
-    <t xml:space="preserve"> High frequency of sensitive keywords.</t>
-  </si>
-  <si>
     <t xml:space="preserve"> Strong targeting.</t>
   </si>
   <si>
@@ -232,9 +205,6 @@
     <t xml:space="preserve"> Strongly negative.</t>
   </si>
   <si>
-    <t xml:space="preserve"> Several high-risk keywords.</t>
-  </si>
-  <si>
     <t xml:space="preserve"> Aggressive targeting, borderline harmful.</t>
   </si>
   <si>
@@ -250,9 +220,6 @@
     <t xml:space="preserve"> Extremely negative or hostile tone.</t>
   </si>
   <si>
-    <t xml:space="preserve"> Excessive use of multiple high-risk keywords.</t>
-  </si>
-  <si>
     <t xml:space="preserve"> Explicit targeting with harmful intent.</t>
   </si>
   <si>
@@ -260,39 +227,6 @@
   </si>
   <si>
     <t xml:space="preserve"> Immediate threat, calls for action.</t>
-  </si>
-  <si>
-    <t>Keywords</t>
-  </si>
-  <si>
-    <t>Highly credible.</t>
-  </si>
-  <si>
-    <t>Mostly credible.</t>
-  </si>
-  <si>
-    <t>Generally credible but some skepticism.</t>
-  </si>
-  <si>
-    <t>Occasionally credible with past issues.</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Neutral reputation.</t>
-  </si>
-  <si>
-    <t>Somewhat unreliable.</t>
-  </si>
-  <si>
-    <t>Questionable reputation.</t>
-  </si>
-  <si>
-    <t>Frequently unreliable.</t>
-  </si>
-  <si>
-    <t>Known for bad content.</t>
-  </si>
-  <si>
-    <t>Known bad actor with harmful content.</t>
   </si>
   <si>
     <t>Recommendations</t>
@@ -673,13 +607,13 @@
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
+      <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
+      <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
+      <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -2128,7 +2062,7 @@
   <dimension ref="A2:K16"/>
   <sheetViews>
     <sheetView topLeftCell="A6" zoomScale="40" zoomScaleNormal="40" workbookViewId="0">
-      <selection activeCell="B16" sqref="B16:D16"/>
+      <selection activeCell="G16" sqref="G16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="7.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2160,7 +2094,7 @@
     </row>
     <row r="4" spans="1:11" ht="60" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A4" s="34" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B4" s="25"/>
       <c r="C4" s="26"/>
@@ -2190,19 +2124,19 @@
     </row>
     <row r="8" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.65">
       <c r="A8" s="5" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B8" s="5" t="s">
         <v>4</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D8" s="5" t="s">
         <v>5</v>
       </c>
       <c r="E8" s="5" t="s">
-        <v>98</v>
+        <v>76</v>
       </c>
     </row>
     <row r="9" spans="1:11" ht="90" customHeight="1" x14ac:dyDescent="0.5">
@@ -2215,7 +2149,7 @@
       </c>
       <c r="D9" s="3"/>
       <c r="E9" s="3" t="s">
-        <v>93</v>
+        <v>71</v>
       </c>
     </row>
     <row r="10" spans="1:11" ht="90" customHeight="1" x14ac:dyDescent="0.5">
@@ -2228,7 +2162,7 @@
       </c>
       <c r="D10" s="3"/>
       <c r="E10" s="3" t="s">
-        <v>94</v>
+        <v>72</v>
       </c>
     </row>
     <row r="11" spans="1:11" ht="90" customHeight="1" x14ac:dyDescent="0.5">
@@ -2241,7 +2175,7 @@
       </c>
       <c r="D11" s="3"/>
       <c r="E11" s="3" t="s">
-        <v>95</v>
+        <v>73</v>
       </c>
     </row>
     <row r="12" spans="1:11" ht="90" customHeight="1" x14ac:dyDescent="0.5">
@@ -2254,12 +2188,12 @@
       </c>
       <c r="D12" s="3"/>
       <c r="E12" s="3" t="s">
-        <v>96</v>
+        <v>74</v>
       </c>
     </row>
     <row r="13" spans="1:11" ht="90" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A13" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B13" s="2"/>
       <c r="C13" s="2">
@@ -2267,13 +2201,13 @@
       </c>
       <c r="D13" s="3"/>
       <c r="E13" s="3" t="s">
-        <v>97</v>
+        <v>75</v>
       </c>
     </row>
     <row r="14" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.35"/>
     <row r="15" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.7">
       <c r="A15" s="4" t="s">
-        <v>86</v>
+        <v>64</v>
       </c>
       <c r="B15" s="17">
         <f>SUM(Table2[Score])/SUM(Table2[Max Score])*100</f>
@@ -2284,7 +2218,7 @@
     </row>
     <row r="16" spans="1:11" ht="151.5" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A16" s="12" t="s">
-        <v>85</v>
+        <v>63</v>
       </c>
       <c r="B16" s="18"/>
       <c r="C16" s="19"/>
@@ -2323,7 +2257,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{46FD9E3F-E70D-45A8-8F2C-D4A43930FBCC}">
   <dimension ref="B18:L21"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+    <sheetView topLeftCell="A7" workbookViewId="0">
       <selection activeCell="Q18" sqref="Q18"/>
     </sheetView>
   </sheetViews>
@@ -2336,13 +2270,13 @@
   <sheetData>
     <row r="18" spans="2:12" ht="21" x14ac:dyDescent="0.5">
       <c r="B18" s="14" t="s">
-        <v>87</v>
+        <v>65</v>
       </c>
       <c r="C18" s="14" t="s">
-        <v>88</v>
+        <v>66</v>
       </c>
       <c r="E18" s="37" t="s">
-        <v>92</v>
+        <v>70</v>
       </c>
       <c r="F18" s="38"/>
       <c r="G18" s="38"/>
@@ -2354,7 +2288,7 @@
     </row>
     <row r="19" spans="2:12" ht="21" x14ac:dyDescent="0.5">
       <c r="B19" s="15" t="s">
-        <v>89</v>
+        <v>67</v>
       </c>
       <c r="C19" s="16">
         <v>10000</v>
@@ -2370,7 +2304,7 @@
     </row>
     <row r="20" spans="2:12" ht="21" x14ac:dyDescent="0.5">
       <c r="B20" s="15" t="s">
-        <v>90</v>
+        <v>68</v>
       </c>
       <c r="C20" s="16">
         <v>500</v>
@@ -2386,7 +2320,7 @@
     </row>
     <row r="21" spans="2:12" ht="21" x14ac:dyDescent="0.5">
       <c r="B21" s="16" t="s">
-        <v>91</v>
+        <v>69</v>
       </c>
       <c r="C21" s="16">
         <v>400</v>
@@ -2412,10 +2346,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{82F2D57F-93BD-4E0B-95BE-BCD1AB63C0BA}">
-  <dimension ref="A1:K23"/>
+  <dimension ref="A1:I23"/>
   <sheetViews>
-    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="D27" sqref="D27"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="I17" sqref="I17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2426,6 +2360,7 @@
     <col min="5" max="5" width="36.7265625" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="8.81640625" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="37.54296875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="42.90625" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="9.08984375" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="37.81640625" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="7.36328125" bestFit="1" customWidth="1"/>
@@ -2436,510 +2371,378 @@
     <col min="20" max="20" width="33.453125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A1" s="10" t="s">
         <v>3</v>
       </c>
       <c r="B1" s="11" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D1" s="10" t="s">
         <v>6</v>
       </c>
       <c r="E1" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="G1" s="10" t="s">
-        <v>74</v>
-      </c>
-      <c r="H1" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="J1" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="H1" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="K1" s="11" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="I1" s="11" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A2" s="8">
         <v>1</v>
       </c>
       <c r="B2" s="9" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D2" s="8">
         <v>1</v>
       </c>
       <c r="E2" s="9" t="s">
-        <v>21</v>
-      </c>
-      <c r="G2" s="8">
+        <v>19</v>
+      </c>
+      <c r="H2" s="8">
         <v>1</v>
       </c>
-      <c r="H2" s="9" t="s">
-        <v>22</v>
-      </c>
-      <c r="J2" s="8">
-        <v>1</v>
-      </c>
-      <c r="K2" s="9" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="I2" s="9" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A3" s="6">
         <v>2</v>
       </c>
       <c r="B3" s="7" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D3" s="6">
         <v>2</v>
       </c>
       <c r="E3" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="H3" s="6">
+        <v>2</v>
+      </c>
+      <c r="I3" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="G3" s="6">
-        <v>2</v>
-      </c>
-      <c r="H3" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="J3" s="6">
-        <v>2</v>
-      </c>
-      <c r="K3" s="7" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.35">
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A4" s="6">
         <v>3</v>
       </c>
       <c r="B4" s="7" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="D4" s="6">
         <v>3</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="G4" s="6">
+        <v>24</v>
+      </c>
+      <c r="H4" s="6">
         <v>3</v>
       </c>
-      <c r="H4" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="J4" s="6">
-        <v>3</v>
-      </c>
-      <c r="K4" s="7" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="I4" s="7" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A5" s="6">
         <v>4</v>
       </c>
       <c r="B5" s="7" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="D5" s="6">
         <v>4</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>33</v>
-      </c>
-      <c r="G5" s="6">
+        <v>29</v>
+      </c>
+      <c r="H5" s="6">
         <v>4</v>
       </c>
-      <c r="H5" s="7" t="s">
-        <v>34</v>
-      </c>
-      <c r="J5" s="6">
-        <v>4</v>
-      </c>
-      <c r="K5" s="7" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="I5" s="7" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A6" s="6">
         <v>5</v>
       </c>
       <c r="B6" s="7" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="D6" s="6">
         <v>5</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>39</v>
-      </c>
-      <c r="G6" s="6">
+        <v>34</v>
+      </c>
+      <c r="H6" s="6">
         <v>5</v>
       </c>
-      <c r="H6" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="J6" s="6">
-        <v>5</v>
-      </c>
-      <c r="K6" s="7" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="I6" s="7" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A7" s="6">
         <v>6</v>
       </c>
       <c r="B7" s="7" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="D7" s="6">
         <v>6</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>45</v>
-      </c>
-      <c r="G7" s="6">
+        <v>39</v>
+      </c>
+      <c r="H7" s="6">
         <v>6</v>
       </c>
-      <c r="H7" s="7" t="s">
-        <v>46</v>
-      </c>
-      <c r="J7" s="6">
-        <v>6</v>
-      </c>
-      <c r="K7" s="7" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="I7" s="7" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A8" s="6">
         <v>7</v>
       </c>
       <c r="B8" s="7" t="s">
-        <v>50</v>
+        <v>43</v>
       </c>
       <c r="D8" s="6">
         <v>7</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>51</v>
-      </c>
-      <c r="G8" s="6">
+        <v>44</v>
+      </c>
+      <c r="H8" s="6">
         <v>7</v>
       </c>
-      <c r="H8" s="7" t="s">
-        <v>52</v>
-      </c>
-      <c r="J8" s="6">
-        <v>7</v>
-      </c>
-      <c r="K8" s="7" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="I8" s="7" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A9" s="6">
         <v>8</v>
       </c>
       <c r="B9" s="7" t="s">
-        <v>56</v>
+        <v>48</v>
       </c>
       <c r="D9" s="6">
         <v>8</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>57</v>
-      </c>
-      <c r="G9" s="6">
+        <v>49</v>
+      </c>
+      <c r="H9" s="6">
         <v>8</v>
       </c>
-      <c r="H9" s="7" t="s">
-        <v>58</v>
-      </c>
-      <c r="J9" s="6">
-        <v>8</v>
-      </c>
-      <c r="K9" s="7" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="I9" s="7" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A10" s="6">
         <v>9</v>
       </c>
       <c r="B10" s="7" t="s">
-        <v>62</v>
+        <v>53</v>
       </c>
       <c r="D10" s="6">
         <v>9</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>63</v>
-      </c>
-      <c r="G10" s="6">
+        <v>54</v>
+      </c>
+      <c r="H10" s="6">
         <v>9</v>
       </c>
-      <c r="H10" s="7" t="s">
-        <v>64</v>
-      </c>
-      <c r="J10" s="6">
-        <v>9</v>
-      </c>
-      <c r="K10" s="7" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="I10" s="7" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A11" s="6">
         <v>10</v>
       </c>
       <c r="B11" s="7" t="s">
-        <v>68</v>
+        <v>58</v>
       </c>
       <c r="D11" s="6">
         <v>10</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>69</v>
-      </c>
-      <c r="G11" s="6">
+        <v>59</v>
+      </c>
+      <c r="H11" s="6">
         <v>10</v>
       </c>
-      <c r="H11" s="7" t="s">
-        <v>70</v>
-      </c>
-      <c r="J11" s="6">
+      <c r="I11" s="7" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A13" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="K11" s="7" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="13" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A13" s="10" t="s">
-        <v>9</v>
-      </c>
       <c r="B13" s="11" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D13" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="E13" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="E13" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="G13" s="10" t="s">
-        <v>8</v>
-      </c>
-      <c r="H13" s="11" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.35">
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A14" s="8">
         <v>1</v>
       </c>
       <c r="B14" s="9" t="s">
-        <v>75</v>
+        <v>22</v>
       </c>
       <c r="D14" s="8">
         <v>1</v>
       </c>
       <c r="E14" s="9" t="s">
-        <v>25</v>
-      </c>
-      <c r="G14" s="8">
-        <v>1</v>
-      </c>
-      <c r="H14" s="9" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.35">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A15" s="6">
         <v>2</v>
       </c>
       <c r="B15" s="7" t="s">
-        <v>76</v>
+        <v>18</v>
       </c>
       <c r="D15" s="6">
         <v>2</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="G15" s="6">
-        <v>2</v>
-      </c>
-      <c r="H15" s="7" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.35">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A16" s="6">
         <v>3</v>
       </c>
       <c r="B16" s="7" t="s">
-        <v>77</v>
+        <v>27</v>
       </c>
       <c r="D16" s="6">
         <v>3</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="G16" s="6">
-        <v>3</v>
-      </c>
-      <c r="H16" s="7" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.35">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A17" s="6">
         <v>4</v>
       </c>
       <c r="B17" s="7" t="s">
-        <v>78</v>
+        <v>32</v>
       </c>
       <c r="D17" s="6">
         <v>4</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>37</v>
-      </c>
-      <c r="G17" s="6">
-        <v>4</v>
-      </c>
-      <c r="H17" s="7" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.35">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A18" s="6">
         <v>5</v>
       </c>
       <c r="B18" s="7" t="s">
-        <v>79</v>
+        <v>37</v>
       </c>
       <c r="D18" s="6">
         <v>5</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>43</v>
-      </c>
-      <c r="G18" s="6">
-        <v>5</v>
-      </c>
-      <c r="H18" s="7" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.35">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A19" s="6">
         <v>6</v>
       </c>
       <c r="B19" s="7" t="s">
-        <v>80</v>
+        <v>42</v>
       </c>
       <c r="D19" s="6">
         <v>6</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>49</v>
-      </c>
-      <c r="G19" s="6">
-        <v>6</v>
-      </c>
-      <c r="H19" s="7" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.35">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A20" s="6">
         <v>7</v>
       </c>
       <c r="B20" s="7" t="s">
-        <v>81</v>
+        <v>47</v>
       </c>
       <c r="D20" s="6">
         <v>7</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>55</v>
-      </c>
-      <c r="G20" s="6">
-        <v>7</v>
-      </c>
-      <c r="H20" s="7" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.35">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A21" s="6">
         <v>8</v>
       </c>
       <c r="B21" s="7" t="s">
-        <v>82</v>
+        <v>52</v>
       </c>
       <c r="D21" s="6">
         <v>8</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>61</v>
-      </c>
-      <c r="G21" s="6">
-        <v>8</v>
-      </c>
-      <c r="H21" s="7" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.35">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A22" s="6">
         <v>9</v>
       </c>
       <c r="B22" s="7" t="s">
-        <v>83</v>
+        <v>57</v>
       </c>
       <c r="D22" s="6">
         <v>9</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>67</v>
-      </c>
-      <c r="G22" s="6">
-        <v>9</v>
-      </c>
-      <c r="H22" s="7" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.35">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A23" s="6">
         <v>10</v>
       </c>
       <c r="B23" s="7" t="s">
-        <v>84</v>
+        <v>62</v>
       </c>
       <c r="D23" s="6">
         <v>10</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>73</v>
-      </c>
-      <c r="G23" s="6">
-        <v>10</v>
-      </c>
-      <c r="H23" s="7" t="s">
-        <v>72</v>
+        <v>61</v>
       </c>
     </row>
   </sheetData>
